--- a/xG/Udinese_matches_2020.xlsx
+++ b/xG/Udinese_matches_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>home</t>
   </si>
@@ -118,6 +118,21 @@
     <t>0.413067</t>
   </si>
   <si>
+    <t>1.22788</t>
+  </si>
+  <si>
+    <t>1.07631</t>
+  </si>
+  <si>
+    <t>1.10391</t>
+  </si>
+  <si>
+    <t>0.628497</t>
+  </si>
+  <si>
+    <t>2.4683</t>
+  </si>
+  <si>
     <t>2.14756</t>
   </si>
   <si>
@@ -140,6 +155,21 @@
   </si>
   <si>
     <t>0.731116</t>
+  </si>
+  <si>
+    <t>1.42863</t>
+  </si>
+  <si>
+    <t>1.47406</t>
+  </si>
+  <si>
+    <t>0.123143</t>
+  </si>
+  <si>
+    <t>1.43641</t>
+  </si>
+  <si>
+    <t>0.338064</t>
   </si>
   <si>
     <t>1</t>
@@ -549,13 +579,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,13 +602,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,13 +625,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -618,13 +648,13 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -641,13 +671,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -664,13 +694,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -687,13 +717,13 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -710,13 +740,13 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -729,16 +759,40 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -746,10 +800,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -757,10 +823,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -768,10 +846,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -779,10 +869,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -790,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -801,10 +891,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -812,10 +902,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -823,10 +913,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
